--- a/Data/EUDA/Cannabis_detaille/compo_menages_global.xlsx
+++ b/Data/EUDA/Cannabis_detaille/compo_menages_global.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,52 +441,47 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Year of Treatment</t>
+          <t>Alone.global</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Alone</t>
+          <t>With the family of origin (parents, etc.).global</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>With the family of origin (parents, etc.)</t>
+          <t>With partner / children.global</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>With partner / children</t>
+          <t>With friends or other people (with no family relation).global</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>With friends or other people (with no family relation)</t>
+          <t>In detention.global</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>In detention</t>
+          <t>In institutions /shelters (not detention).global</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>In institutions /shelters (not detention)</t>
+          <t>Other.global</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Not known / missing.global</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Not known / missing</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
+          <t>Total.global</t>
         </is>
       </c>
     </row>
@@ -497,33 +492,30 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2022</v>
+        <v>316</v>
       </c>
       <c r="C2" t="n">
-        <v>316</v>
+        <v>363</v>
       </c>
       <c r="D2" t="n">
-        <v>363</v>
+        <v>272</v>
       </c>
       <c r="E2" t="n">
-        <v>272</v>
+        <v>41</v>
       </c>
       <c r="F2" t="n">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="G2" t="n">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="H2" t="n">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
         <v>1124</v>
       </c>
     </row>
@@ -534,33 +526,30 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2022</v>
+        <v>973</v>
       </c>
       <c r="C3" t="n">
-        <v>973</v>
+        <v>1341</v>
       </c>
       <c r="D3" t="n">
-        <v>1341</v>
+        <v>661</v>
       </c>
       <c r="E3" t="n">
-        <v>661</v>
+        <v>133</v>
       </c>
       <c r="F3" t="n">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="G3" t="n">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="H3" t="n">
-        <v>143</v>
+        <v>31</v>
       </c>
       <c r="I3" t="n">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="J3" t="n">
-        <v>100</v>
-      </c>
-      <c r="K3" t="n">
         <v>3501</v>
       </c>
     </row>
@@ -571,33 +560,30 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2022</v>
+        <v>16</v>
       </c>
       <c r="C4" t="n">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="D4" t="n">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="E4" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J4" t="n">
-        <v>5</v>
-      </c>
-      <c r="K4" t="n">
         <v>109</v>
       </c>
     </row>
@@ -608,29 +594,26 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2022</v>
+        <v>48</v>
       </c>
       <c r="C5" t="n">
-        <v>48</v>
+        <v>321</v>
       </c>
       <c r="D5" t="n">
-        <v>321</v>
+        <v>51</v>
       </c>
       <c r="E5" t="n">
-        <v>51</v>
-      </c>
-      <c r="F5" t="n">
         <v>6</v>
       </c>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
+      <c r="H5" t="n">
+        <v>47</v>
+      </c>
       <c r="I5" t="n">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
-      </c>
-      <c r="K5" t="n">
         <v>478</v>
       </c>
     </row>
@@ -641,31 +624,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2022</v>
+        <v>32</v>
       </c>
       <c r="C6" t="n">
-        <v>32</v>
+        <v>213</v>
       </c>
       <c r="D6" t="n">
-        <v>213</v>
+        <v>47</v>
       </c>
       <c r="E6" t="n">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="F6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="n">
+        <v>38</v>
+      </c>
+      <c r="I6" t="n">
         <v>4</v>
       </c>
-      <c r="G6" t="n">
-        <v>2</v>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="n">
-        <v>38</v>
-      </c>
       <c r="J6" t="n">
-        <v>4</v>
-      </c>
-      <c r="K6" t="n">
         <v>340</v>
       </c>
     </row>
@@ -676,33 +656,30 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2020</v>
+        <v>104</v>
       </c>
       <c r="C7" t="n">
-        <v>104</v>
+        <v>286</v>
       </c>
       <c r="D7" t="n">
-        <v>286</v>
+        <v>105</v>
       </c>
       <c r="E7" t="n">
-        <v>105</v>
+        <v>36</v>
       </c>
       <c r="F7" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="G7" t="n">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="H7" t="n">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="I7" t="n">
-        <v>5</v>
+        <v>487</v>
       </c>
       <c r="J7" t="n">
-        <v>487</v>
-      </c>
-      <c r="K7" t="n">
         <v>1072</v>
       </c>
     </row>
@@ -713,33 +690,30 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2022</v>
+        <v>1515</v>
       </c>
       <c r="C8" t="n">
-        <v>1515</v>
+        <v>667</v>
       </c>
       <c r="D8" t="n">
-        <v>667</v>
+        <v>564</v>
       </c>
       <c r="E8" t="n">
-        <v>564</v>
+        <v>164</v>
       </c>
       <c r="F8" t="n">
-        <v>164</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="I8" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="J8" t="n">
-        <v>90</v>
-      </c>
-      <c r="K8" t="n">
         <v>3085</v>
       </c>
     </row>
@@ -750,27 +724,24 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2022</v>
+        <v>8</v>
       </c>
       <c r="C9" t="n">
+        <v>6</v>
+      </c>
+      <c r="D9" t="n">
         <v>8</v>
       </c>
-      <c r="D9" t="n">
-        <v>6</v>
-      </c>
-      <c r="E9" t="n">
-        <v>8</v>
-      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
         <v>3</v>
       </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="n">
         <v>26</v>
       </c>
     </row>
@@ -781,16 +752,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2021</v>
+        <v>45</v>
       </c>
       <c r="C10" t="n">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="D10" t="n">
         <v>8</v>
       </c>
       <c r="E10" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -802,12 +773,9 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" t="n">
         <v>62</v>
       </c>
     </row>
@@ -818,33 +786,30 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2020</v>
+        <v>4141</v>
       </c>
       <c r="C11" t="n">
-        <v>4141</v>
+        <v>7520</v>
       </c>
       <c r="D11" t="n">
-        <v>7520</v>
+        <v>4705</v>
       </c>
       <c r="E11" t="n">
-        <v>4705</v>
+        <v>542</v>
       </c>
       <c r="F11" t="n">
-        <v>542</v>
+        <v>781</v>
       </c>
       <c r="G11" t="n">
-        <v>781</v>
+        <v>575</v>
       </c>
       <c r="H11" t="n">
-        <v>575</v>
+        <v>1435</v>
       </c>
       <c r="I11" t="n">
-        <v>1435</v>
+        <v>1487</v>
       </c>
       <c r="J11" t="n">
-        <v>1487</v>
-      </c>
-      <c r="K11" t="n">
         <v>21186</v>
       </c>
     </row>
@@ -855,27 +820,24 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2022</v>
+        <v>6710</v>
       </c>
       <c r="C12" t="n">
-        <v>6710</v>
+        <v>8105</v>
       </c>
       <c r="D12" t="n">
-        <v>8105</v>
+        <v>5584</v>
       </c>
       <c r="E12" t="n">
-        <v>5584</v>
-      </c>
-      <c r="F12" t="n">
         <v>4196</v>
       </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>1258</v>
+      </c>
       <c r="J12" t="n">
-        <v>1258</v>
-      </c>
-      <c r="K12" t="n">
         <v>23228</v>
       </c>
     </row>
@@ -886,33 +848,30 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2022</v>
+        <v>201</v>
       </c>
       <c r="C13" t="n">
-        <v>201</v>
+        <v>513</v>
       </c>
       <c r="D13" t="n">
-        <v>513</v>
+        <v>143</v>
       </c>
       <c r="E13" t="n">
-        <v>143</v>
+        <v>44</v>
       </c>
       <c r="F13" t="n">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="G13" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>83</v>
+      </c>
+      <c r="I13" t="n">
         <v>2</v>
       </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>83</v>
-      </c>
       <c r="J13" t="n">
-        <v>2</v>
-      </c>
-      <c r="K13" t="n">
         <v>989</v>
       </c>
     </row>
@@ -923,33 +882,30 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2022</v>
+        <v>573</v>
       </c>
       <c r="C14" t="n">
-        <v>573</v>
+        <v>1013</v>
       </c>
       <c r="D14" t="n">
-        <v>1013</v>
+        <v>800</v>
       </c>
       <c r="E14" t="n">
-        <v>800</v>
+        <v>80</v>
       </c>
       <c r="F14" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>239</v>
       </c>
       <c r="I14" t="n">
-        <v>239</v>
+        <v>38</v>
       </c>
       <c r="J14" t="n">
-        <v>38</v>
-      </c>
-      <c r="K14" t="n">
         <v>2743</v>
       </c>
     </row>
@@ -960,33 +916,30 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2022</v>
+        <v>215</v>
       </c>
       <c r="C15" t="n">
-        <v>215</v>
+        <v>1259</v>
       </c>
       <c r="D15" t="n">
-        <v>1259</v>
+        <v>352</v>
       </c>
       <c r="E15" t="n">
-        <v>352</v>
+        <v>72</v>
       </c>
       <c r="F15" t="n">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="G15" t="n">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="H15" t="n">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="I15" t="n">
-        <v>106</v>
+        <v>31</v>
       </c>
       <c r="J15" t="n">
-        <v>31</v>
-      </c>
-      <c r="K15" t="n">
         <v>2184</v>
       </c>
     </row>
@@ -997,33 +950,30 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2022</v>
+        <v>478</v>
       </c>
       <c r="C16" t="n">
-        <v>478</v>
+        <v>2735</v>
       </c>
       <c r="D16" t="n">
-        <v>2735</v>
+        <v>671</v>
       </c>
       <c r="E16" t="n">
-        <v>671</v>
+        <v>115</v>
       </c>
       <c r="F16" t="n">
-        <v>115</v>
+        <v>285</v>
       </c>
       <c r="G16" t="n">
-        <v>285</v>
+        <v>98</v>
       </c>
       <c r="H16" t="n">
-        <v>98</v>
+        <v>417</v>
       </c>
       <c r="I16" t="n">
-        <v>417</v>
+        <v>2717</v>
       </c>
       <c r="J16" t="n">
-        <v>2717</v>
-      </c>
-      <c r="K16" t="n">
         <v>7516</v>
       </c>
     </row>
@@ -1034,33 +984,30 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2022</v>
+        <v>19</v>
       </c>
       <c r="C17" t="n">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="D17" t="n">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="E17" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="F17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H17" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I17" t="n">
-        <v>8</v>
+        <v>93</v>
       </c>
       <c r="J17" t="n">
-        <v>93</v>
-      </c>
-      <c r="K17" t="n">
         <v>241</v>
       </c>
     </row>
@@ -1071,25 +1018,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2022</v>
+        <v>5</v>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D18" t="n">
-        <v>13</v>
-      </c>
-      <c r="E18" t="n">
         <v>6</v>
       </c>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="n">
+      <c r="H18" t="n">
         <v>1</v>
       </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1100,27 +1044,24 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2022</v>
+        <v>29</v>
       </c>
       <c r="C19" t="n">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="D19" t="n">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="E19" t="n">
-        <v>6</v>
-      </c>
-      <c r="F19" t="n">
         <v>1</v>
       </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="n">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="n">
         <v>10</v>
       </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
+      <c r="J19" t="n">
         <v>108</v>
       </c>
     </row>
@@ -1131,33 +1072,30 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2022</v>
+        <v>54</v>
       </c>
       <c r="C20" t="n">
-        <v>54</v>
+        <v>119</v>
       </c>
       <c r="D20" t="n">
-        <v>119</v>
+        <v>29</v>
       </c>
       <c r="E20" t="n">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="F20" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G20" t="n">
+        <v>12</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
         <v>5</v>
       </c>
-      <c r="H20" t="n">
-        <v>12</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
       <c r="J20" t="n">
-        <v>5</v>
-      </c>
-      <c r="K20" t="n">
         <v>233</v>
       </c>
     </row>
@@ -1168,33 +1106,30 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2015</v>
+        <v>1561</v>
       </c>
       <c r="C21" t="n">
-        <v>1561</v>
+        <v>911</v>
       </c>
       <c r="D21" t="n">
-        <v>911</v>
+        <v>820</v>
       </c>
       <c r="E21" t="n">
-        <v>820</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="H21" t="n">
-        <v>129</v>
+        <v>332</v>
       </c>
       <c r="I21" t="n">
-        <v>332</v>
+        <v>1449</v>
       </c>
       <c r="J21" t="n">
-        <v>1449</v>
-      </c>
-      <c r="K21" t="n">
         <v>5202</v>
       </c>
     </row>
@@ -1213,7 +1148,6 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1222,31 +1156,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2022</v>
+        <v>172</v>
       </c>
       <c r="C23" t="n">
-        <v>172</v>
+        <v>754</v>
       </c>
       <c r="D23" t="n">
-        <v>754</v>
+        <v>136</v>
       </c>
       <c r="E23" t="n">
-        <v>136</v>
-      </c>
-      <c r="F23" t="n">
         <v>20</v>
       </c>
-      <c r="G23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="n">
+        <v>39</v>
+      </c>
       <c r="H23" t="n">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="I23" t="n">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="J23" t="n">
-        <v>13</v>
-      </c>
-      <c r="K23" t="n">
         <v>1165</v>
       </c>
     </row>
@@ -1257,31 +1188,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2022</v>
+        <v>174</v>
       </c>
       <c r="C24" t="n">
-        <v>174</v>
+        <v>557</v>
       </c>
       <c r="D24" t="n">
-        <v>557</v>
+        <v>264</v>
       </c>
       <c r="E24" t="n">
-        <v>264</v>
+        <v>19</v>
       </c>
       <c r="F24" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G24" t="n">
-        <v>22</v>
-      </c>
-      <c r="H24" t="n">
         <v>31</v>
       </c>
-      <c r="I24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="n">
+        <v>171</v>
+      </c>
       <c r="J24" t="n">
-        <v>171</v>
-      </c>
-      <c r="K24" t="n">
         <v>1238</v>
       </c>
     </row>
@@ -1292,33 +1220,30 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2022</v>
+        <v>323</v>
       </c>
       <c r="C25" t="n">
-        <v>323</v>
+        <v>1072</v>
       </c>
       <c r="D25" t="n">
-        <v>1072</v>
+        <v>349</v>
       </c>
       <c r="E25" t="n">
-        <v>349</v>
+        <v>71</v>
       </c>
       <c r="F25" t="n">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G25" t="n">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="H25" t="n">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="I25" t="n">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="J25" t="n">
-        <v>22</v>
-      </c>
-      <c r="K25" t="n">
         <v>1976</v>
       </c>
     </row>
@@ -1329,31 +1254,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2022</v>
+        <v>41</v>
       </c>
       <c r="C26" t="n">
-        <v>41</v>
+        <v>205</v>
       </c>
       <c r="D26" t="n">
-        <v>205</v>
+        <v>55</v>
       </c>
       <c r="E26" t="n">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="F26" t="n">
-        <v>5</v>
-      </c>
-      <c r="G26" t="n">
         <v>170</v>
       </c>
-      <c r="H26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="n">
+        <v>30</v>
+      </c>
       <c r="I26" t="n">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="J26" t="n">
-        <v>8</v>
-      </c>
-      <c r="K26" t="n">
         <v>514</v>
       </c>
     </row>
@@ -1364,10 +1286,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2022</v>
+        <v>5</v>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -1388,9 +1310,6 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1401,33 +1320,30 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2021</v>
+        <v>1321</v>
       </c>
       <c r="C28" t="n">
-        <v>1321</v>
+        <v>6206</v>
       </c>
       <c r="D28" t="n">
-        <v>6206</v>
+        <v>2704</v>
       </c>
       <c r="E28" t="n">
-        <v>2704</v>
+        <v>422</v>
       </c>
       <c r="F28" t="n">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="G28" t="n">
-        <v>415</v>
+        <v>507</v>
       </c>
       <c r="H28" t="n">
-        <v>507</v>
+        <v>428</v>
       </c>
       <c r="I28" t="n">
-        <v>428</v>
+        <v>347</v>
       </c>
       <c r="J28" t="n">
-        <v>347</v>
-      </c>
-      <c r="K28" t="n">
         <v>12350</v>
       </c>
     </row>
@@ -1438,33 +1354,30 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2022</v>
+        <v>19</v>
       </c>
       <c r="C29" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E29" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I29" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
         <v>43</v>
       </c>
     </row>
@@ -1475,33 +1388,30 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2022</v>
+        <v>102</v>
       </c>
       <c r="C30" t="n">
-        <v>102</v>
+        <v>586</v>
       </c>
       <c r="D30" t="n">
-        <v>586</v>
+        <v>232</v>
       </c>
       <c r="E30" t="n">
-        <v>232</v>
+        <v>5</v>
       </c>
       <c r="F30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G30" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H30" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I30" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
         <v>946</v>
       </c>
     </row>
@@ -1516,7 +1426,6 @@
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1533,7 +1442,6 @@
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1550,7 +1458,6 @@
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1567,7 +1474,6 @@
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
